--- a/Mir Mohaiminul Islam_test_case_v3.xlsx
+++ b/Mir Mohaiminul Islam_test_case_v3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BJIT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Taka_test_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E9A77-0B43-4A17-8E08-26A2AD9E8D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D431571-D887-4535-B011-76F12F7C52CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="210">
   <si>
     <t>Areas of the Feature</t>
   </si>
@@ -241,9 +241,6 @@
 2. Click Register Button.</t>
   </si>
   <si>
-    <t>1. The system displays an error message indicating that the provided email or mobile number is already in use.</t>
-  </si>
-  <si>
     <t>1. Open the "TAKA" Application.
 2.Click to the registration button. 3.Provide the necessary information. 4.Click Register Now button.</t>
   </si>
@@ -277,23 +274,13 @@
     <t>Check user tries to register using a VPN</t>
   </si>
   <si>
-    <t>Check user tries to register using a bot</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Verify user tries to register with an email and mobile number that are not already registered in the system.</t>
   </si>
   <si>
     <t>Verify that user click the register button multiple times to do register</t>
   </si>
   <si>
-    <t>1. Open the "TAKA" Application.
-2. Click Register Button.                         3. Click Register Now button Multiple times</t>
-  </si>
-  <si>
     <t>Verify user try to register with fake NID</t>
-  </si>
-  <si>
-    <t>1. Taka Application should be installed in Mobile.                                                    2.fake NID should be detected by system</t>
   </si>
   <si>
     <t>1. Open the "TAKA" Application.
@@ -315,35 +302,17 @@
     <t>Check the confirmation screen show before the final transaction</t>
   </si>
   <si>
-    <t>Check Account Balance After Cash In</t>
-  </si>
-  <si>
     <t>Verify that Correct Notification message show to user after Cash In</t>
-  </si>
-  <si>
-    <t>1."Cash In successfull" message show for successful transection                       2. "tansaction failed error code Cash In" message will be shown.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Taka Application should be installed in Mobile.                                                    2. user should logged in to the system                                              </t>
   </si>
   <si>
     <t xml:space="preserve">1. Open the "TAKA" Application.
 2. Login                                            3. 3.Click Cash In Button          </t>
   </si>
   <si>
-    <t>1. Open the "TAKA" Application.
-2. Login    .
-2. Click Cash In Button.                           3. conduct a successful transaction        4.Notification message should appear</t>
-  </si>
-  <si>
     <t>1. Open the "TAKA" Application.       2. Login
 3. Click Cash In Button.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open the "TAKA" Application.            2. Login
-3. Click Cash In Button.                          3. 4.input amount.                                        5.click Submit Button </t>
-  </si>
-  <si>
     <t>1. Open the "TAKA" Application.             2. Login
 3. Click Cash In Button.                              4.conduct a successful transaction</t>
   </si>
@@ -358,9 +327,6 @@
 3. Click Cash In Button.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Successful Transaction happen if the time gap is two minutes.                              </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Verify user cross the limit of Cash In</t>
   </si>
   <si>
@@ -368,25 +334,10 @@
 2. Click Register Button.                         3. Input unique email in the input field.</t>
   </si>
   <si>
-    <t>Cash In transaction failed due to cross the limit of transaction</t>
-  </si>
-  <si>
     <t>1. Open the "TAKA" Application.               2. Login
 3. Click Cash In Button.                           4. Click Submit button Multiple times</t>
   </si>
   <si>
-    <t>1. The system recognizes the duplicate transaction attempt and displays an error message.
-2. The user's account balance remains unchanged.
-3. The system prevents the user from initiating the same transaction twice in quick succession.</t>
-  </si>
-  <si>
-    <t>Verifiy partial Cash In with Transaction Fee</t>
-  </si>
-  <si>
-    <t>1. Open the "TAKA" Application.               2. Login
-3. Click Cash In Button.                           4. select amount                                         5.click Submit</t>
-  </si>
-  <si>
     <t>Android(Emulator), IOS(Emulator)</t>
   </si>
   <si>
@@ -397,32 +348,19 @@
   </si>
   <si>
     <t>Cash Out</t>
-  </si>
-  <si>
-    <t>1. Taka Application should be installed in Mobile.
-2.User has a valid account with sufficient balance.</t>
   </si>
   <si>
     <t>1. Open the "TAKA" Application.       2. Login
 3. Click Cash Out Button.</t>
   </si>
   <si>
-    <t>1. Successful withdrawal happen with a proper notification message.</t>
-  </si>
-  <si>
     <t>Error message indicating an incorrect PIN will be shown.</t>
   </si>
   <si>
-    <t>Verify withdrawal with invalid PIN number.</t>
-  </si>
-  <si>
     <t>Verify cash out action with valid amount and pin number</t>
   </si>
   <si>
     <t xml:space="preserve">Verify cash out action with exceeding daily limit </t>
-  </si>
-  <si>
-    <t>1. Taka Application should be installed in Mobile.                                                    2. user has a valid account with a daily transaction limit</t>
   </si>
   <si>
     <t>1. Open the "TAKA" Application.       2. Login
@@ -466,9 +404,6 @@
     <t>Verify user tries to make withdrawal with poor internet connection</t>
   </si>
   <si>
-    <t>1. Taka Application should be installed in Mobile.                                                      2. User has poor internet connectivity</t>
-  </si>
-  <si>
     <t xml:space="preserve">1."Withdrawal failed due to network issue will be shown"                              </t>
   </si>
   <si>
@@ -482,32 +417,19 @@
 3. Click Pay Bill Button.</t>
   </si>
   <si>
-    <t>1. Successful Pay Bill happen with a proper notification message.</t>
-  </si>
-  <si>
     <t>Verify Pay Bill with insufficient balance.</t>
   </si>
   <si>
-    <t>1. Taka Application should be installed in Mobile.
-2.User has a valid account with insufficient balance.</t>
-  </si>
-  <si>
     <t>Error message indicating an insufficient balance will be shown.</t>
   </si>
   <si>
     <t>Verify Pay Bill with non existing biller name</t>
   </si>
   <si>
-    <t>1. Taka Application should be installed in Mobile.                                                    2. user has a valid account with sufficient balance</t>
-  </si>
-  <si>
     <t>"Biller Name not found" error message will appear.</t>
   </si>
   <si>
     <t>Verify Bill Payment history update after every transaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Taka Application should be installed in Mobile.                       2. User has a valid account with sufficient balance                                                </t>
   </si>
   <si>
     <t>1. Open the "TAKA" Application.       2. Login
@@ -518,9 +440,6 @@
 3. Click Pay Bill Button.                        4. Enter invalid institution number/Biller name.                                                     5. Enter amount                                      6. Enter PIN                                             7.Click submit button</t>
   </si>
   <si>
-    <t>Successful transaction happen and bill payment history will be updated.</t>
-  </si>
-  <si>
     <t>1. Open the "TAKA" Application.       2. Login
 3. Click Cash In Button.                        4.Enter valid amount.                            5. Enter valid PIN                              6.Click submit button                       7.Click Bill Payment history.</t>
   </si>
@@ -536,9 +455,6 @@
   </si>
   <si>
     <t>Verify that Correct Notification message show after successful Pay Bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Taka Application should be installed in Mobile.                       2.User should successful transaction                                                 </t>
   </si>
   <si>
     <t>1. Open the "TAKA" Application.
@@ -546,9 +462,6 @@
 2. Click Pay Bill Button.                           3. conduct Pay Bill                                 4.Notification message should appear.</t>
   </si>
   <si>
-    <t>1."Payment Successfull" message show for successful transection.</t>
-  </si>
-  <si>
     <t>Verify user has initiated a bill payment but decides to cancel it.</t>
   </si>
   <si>
@@ -557,9 +470,6 @@
 2. Click Pay Bill Button.                           3. Enter amount                              4. Enter PIN                                  5. Cancel payment    </t>
   </si>
   <si>
-    <t>Transaction canceled, no funds deducted.</t>
-  </si>
-  <si>
     <t>Verify invalid recipient phone number format during seinding money</t>
   </si>
   <si>
@@ -632,94 +542,209 @@
 2.Register Now button should be clicked after providing information.</t>
   </si>
   <si>
-    <t>1. Taka Application is installed in Mobile.                                                    2. Password input field doesn't one uppercase letter, one lowercase letter, and one number.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Taka Application is installed in Mobile.                                                    </t>
   </si>
   <si>
     <t xml:space="preserve">1. Taka Application should be installed in Mobile.                                                    2. VPN is detected by system                                              </t>
   </si>
   <si>
-    <t>1. Taka Application should be installed in Mobile.                                                      2. Bot software is present in the system.</t>
-  </si>
-  <si>
-    <t>1. Taka Application should be installed in Mobile.                                                    2. User email is not exist in the database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Taka Application should be installed in Mobile.                                                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Open VPN and select region/country.                           2.Open Taka App.                                      3. Click Register Button      </t>
   </si>
   <si>
     <t xml:space="preserve"> User is notified that there was an issue with the registration process and advised to try again later.</t>
-  </si>
-  <si>
-    <t>Taka App allow the user to register with the password</t>
-  </si>
-  <si>
-    <t>Taka App allow allow the user to register, but the user's account should be restricted to that country.</t>
-  </si>
-  <si>
-    <t>Taka App allow detect the VPN and prevent the user from registering</t>
-  </si>
-  <si>
-    <t>Taka App allow detect the Bot software and prevent the user from registering.</t>
-  </si>
-  <si>
-    <t>User is registered successfully.</t>
-  </si>
-  <si>
-    <t>Taka App allow detect &amp; solved the problem and allow user to register.</t>
-  </si>
-  <si>
-    <t>Taka App is not allow the user to register</t>
   </si>
   <si>
     <t xml:space="preserve">1. Taka Application is installed in Mobile.
 2.system is detect that user tries to provide wrong pin multiple time </t>
   </si>
   <si>
-    <t>1. The system is disable the Cash In confirmation button and cash in will be failed.</t>
+    <t xml:space="preserve">1. Taka Application is installed in Mobile.                                                    2. user should logged in to the system                                              </t>
+  </si>
+  <si>
+    <t>Verify Duplicate Transaction during Cash In</t>
+  </si>
+  <si>
+    <t>1. Taka Application is installed in Mobile.                                                    2.Double click the submit button.</t>
+  </si>
+  <si>
+    <t>Taka App successfully processes the cash in transaction and calculates the transaction fee.</t>
+  </si>
+  <si>
+    <t>Check user tries to register using a bot software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Taka Application should be installed in Mobile.                                                      </t>
+  </si>
+  <si>
+    <t>1. Taka Application is installed in Mobile.                                                    2. User email is not exist in the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Taka Application is installed in Mobile.                                                   </t>
+  </si>
+  <si>
+    <t>1. Open the "TAKA" Application.
+2. Click Register Button.                         3. Provide information                                    3. Click Register Now button Multiple times</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>1. The system should display an error message indicating that the provided email or mobile number is already in use.</t>
+  </si>
+  <si>
+    <t>Taka App should allow the user to register with the password</t>
+  </si>
+  <si>
+    <t>Taka App should allow the user to register, but the user's account should be restricted to that country.</t>
+  </si>
+  <si>
+    <t>Taka App should detect the VPN and prevent the user from registering</t>
+  </si>
+  <si>
+    <t>Taka App should detect the Bot software and prevent the user from registering.</t>
+  </si>
+  <si>
+    <t>"User is registered successfully." will appear</t>
+  </si>
+  <si>
+    <t>Taka App should allow detect &amp; solved the problem and allow user to register.</t>
+  </si>
+  <si>
+    <t>Taka App should not be allowed the user to register</t>
+  </si>
+  <si>
+    <t>1. The system should disable the Cash In confirmation button and cash in will be failed.</t>
   </si>
   <si>
     <t>1. Taka Application is installed in Mobile.
-2.system should detect correct currency.</t>
-  </si>
-  <si>
-    <t>1. Taka Application is installed in Mobile.                                                    2. system should generate a confirmation window</t>
-  </si>
-  <si>
-    <t>Confirmation Screen is appear.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Taka Application is installed in Mobile.                                                    2. user should logged in to the system                                              </t>
-  </si>
-  <si>
-    <t>1. Taka Application is installed in Mobile.                                                      2. The system is detect the time gap between each transection.</t>
-  </si>
-  <si>
-    <t>Balance is adjusted with the Cash In amount.</t>
-  </si>
-  <si>
-    <t>1. User is logged out if user inactive for a long time during Cash In operation</t>
-  </si>
-  <si>
-    <t>Verify Duplicate Transaction during Cash In</t>
-  </si>
-  <si>
-    <t>1. Taka Application is installed in Mobile.                                                    2.Double click the submit button.</t>
+2.user already registered.                      3.User already logged in</t>
+  </si>
+  <si>
+    <t>1.Taka App should detect correct currency                                                 2. For Correct Currency User's cash in request should be successfully executed.                                               3. For wrong currency transaction should be failed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the "TAKA" Application.            2. Login
+3. Click Cash In Button.                          4.input amount.                                        5.click Submit Button </t>
+  </si>
+  <si>
+    <t>Confirmation Screen should be appear.</t>
+  </si>
+  <si>
+    <t>Check adjusted account balance after Cash In</t>
+  </si>
+  <si>
+    <t>1. Taka Application is installed in Mobile.                                                    2.user is already logged in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Taka Application is installed in Mobile.                                                2.user is already logged in                                                </t>
+  </si>
+  <si>
+    <t>Balance should be adjusted with the Cash In amount.</t>
+  </si>
+  <si>
+    <t>1. Open the "TAKA" Application.
+2. Login    .
+2. Click Cash In Button.                           3. conduct a successful transaction.                      4.Notification message should appear</t>
+  </si>
+  <si>
+    <t>1."Cash In successfull" message should show for successful transection                                  2. "tansaction failed error code Cash In" message will be shown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Taka Application is installed in Mobile.                                                    2. user is logged in to the system                                              </t>
+  </si>
+  <si>
+    <t>1. User should be logged out if user inactive for a long time during Cash In operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Successful Transaction happen if the time gap should be two minutes.                              </t>
+  </si>
+  <si>
+    <t>1. Taka Application is installed in Mobile.                                                      2. user is logged in to the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Taka Application is installed in Mobile.
+2. user is logged in to the system                                            </t>
+  </si>
+  <si>
+    <t>Cash In transaction should fail due to cross the limit of transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The system should recognize the duplicate transaction attempt and displays an error message.
+2. The user's account balance should remain unchanged.
+</t>
+  </si>
+  <si>
+    <t>Verifiy Cash In with adding correct  Transaction Fee</t>
   </si>
   <si>
     <t>1. Taka Application is installed in Mobile.                                                    
-2.Taka App charges a transaction fee for cash in transactions.</t>
-  </si>
-  <si>
-    <t>Taka App successfully processes the cash in transaction and calculates the transaction fee.</t>
-  </si>
-  <si>
-    <t>1.Taka App detect correct currency             2. For Correct Currency User's cash in request will be successfully executed.                                               3. For wrong currency transaction will be failed.</t>
+2.user is logged in.
+3.user has a account with sufficient balance</t>
+  </si>
+  <si>
+    <t>1. Open the "TAKA" Application.               2. Login
+3. Click Cash In Button.                           4. select amount  
+5.Enter PIN                                       6.Click Submit</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>1. Taka Application is already installed in Mobile.
+2.User has a valid account with sufficient balance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Taka Application is installed in Mobile.                             2.user is already logged in                                                       </t>
+  </si>
+  <si>
+    <t>Verify cash out with invalid PIN number.</t>
+  </si>
+  <si>
+    <t>1. Taka Application is installed in Mobile.
+2.User has a valid account with sufficient balance.</t>
+  </si>
+  <si>
+    <t>1. Successful withdrawal should happen with a proper notification message.</t>
+  </si>
+  <si>
+    <t>1. Taka Application is installed in Mobile.                                                    2. user has a valid account with a daily transaction limit</t>
+  </si>
+  <si>
+    <t>1. Taka Application is installed in Mobile.                                                      2. User has poor internet connectivity</t>
+  </si>
+  <si>
+    <t>1. Taka Application is installed in Mobile.
+2.User has a valid account with insufficient balance.</t>
+  </si>
+  <si>
+    <t>1. Taka Application is installed in Mobile.                                                    2. user has a valid account with sufficient balance</t>
+  </si>
+  <si>
+    <t>1. Successful Pay Bill should happen with a proper notification message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Taka Application is installed in Mobile. 
+2. User has a valid account with sufficient balance                                                </t>
+  </si>
+  <si>
+    <t>Successful transaction should happen and bill payment history will be updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Taka Application is installed in Mobile.
+2.User should successful transaction                                                 </t>
+  </si>
+  <si>
+    <t>1."Payment Successfull" message should show for successful transection.</t>
+  </si>
+  <si>
+    <t>Transaction should be canceled and no funds deducted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Taka Application is installed in Mobile.
+2. User has a valid account with sufficient balance                                                </t>
   </si>
 </sst>
 </file>
@@ -1806,18 +1831,63 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="17" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1845,50 +1915,35 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="17" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1908,6 +1963,15 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1950,44 +2014,29 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1996,30 +2045,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2303,16 +2328,16 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2334,16 +2359,16 @@
     </row>
     <row r="4" spans="2:17" ht="20.25" thickBot="1">
       <c r="B4" s="19"/>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="98"/>
+      <c r="H4" s="85"/>
       <c r="I4" s="18"/>
     </row>
     <row r="5" spans="2:17" ht="20.25" thickBot="1">
@@ -2352,10 +2377,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="24" t="s">
@@ -2498,11 +2523,11 @@
     </row>
     <row r="12" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="52"/>
       <c r="G12" s="31" t="s">
         <v>32</v>
@@ -2517,10 +2542,10 @@
       <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="103"/>
+      <c r="D13" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="90"/>
       <c r="F13" s="52"/>
       <c r="G13" s="54" t="s">
         <v>33</v>
@@ -2536,10 +2561,10 @@
       <c r="C14" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="105"/>
+      <c r="D14" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="92"/>
       <c r="F14" s="52"/>
       <c r="G14" s="40" t="s">
         <v>35</v>
@@ -2555,10 +2580,10 @@
       <c r="C15" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="105"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="52"/>
       <c r="G15" s="40" t="s">
         <v>36</v>
@@ -2574,10 +2599,10 @@
       <c r="C16" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="105"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="30"/>
       <c r="G16" s="40" t="s">
         <v>38</v>
@@ -2593,10 +2618,10 @@
       <c r="C17" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="81"/>
+      <c r="D17" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="94"/>
       <c r="F17" s="30"/>
       <c r="G17" s="44" t="s">
         <v>39</v>
@@ -2612,10 +2637,10 @@
       <c r="C18" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="91">
+      <c r="D18" s="78">
         <v>44062</v>
       </c>
-      <c r="E18" s="92"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="30"/>
       <c r="G18" s="58" t="s">
         <v>41</v>
@@ -2631,8 +2656,8 @@
       <c r="C19" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="16"/>
       <c r="H19" s="60"/>
       <c r="I19" s="5"/>
@@ -2642,8 +2667,8 @@
       <c r="C20" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="61"/>
       <c r="G20" s="62"/>
       <c r="H20" s="63"/>
@@ -2654,10 +2679,10 @@
       <c r="C21" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="81"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="16"/>
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
@@ -2668,10 +2693,10 @@
       <c r="C22" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="83"/>
+      <c r="E22" s="98"/>
       <c r="F22" s="16"/>
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
@@ -2686,11 +2711,11 @@
     </row>
     <row r="24" spans="2:9" ht="16.5" thickBot="1">
       <c r="B24" s="3"/>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="16"/>
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
@@ -2701,10 +2726,10 @@
       <c r="C25" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="88"/>
+      <c r="E25" s="103"/>
       <c r="F25" s="16"/>
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
@@ -2715,10 +2740,10 @@
       <c r="C26" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="67"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
@@ -2729,10 +2754,10 @@
       <c r="C27" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="90"/>
+      <c r="E27" s="105"/>
       <c r="G27" s="62"/>
       <c r="H27" s="62"/>
       <c r="I27" s="5"/>
@@ -2742,10 +2767,10 @@
       <c r="C28" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="79"/>
+      <c r="E28" s="96"/>
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
       <c r="I28" s="5"/>
@@ -2770,6 +2795,13 @@
     <row r="37" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:E4"/>
@@ -2782,13 +2814,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2799,8 +2824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62:G69"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2814,83 +2839,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="138"/>
-      <c r="I2" s="134" t="s">
+      <c r="H2" s="115"/>
+      <c r="I2" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="113" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="137"/>
+        <v>76</v>
+      </c>
+      <c r="I3" s="112"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" ht="63">
       <c r="A4" s="72">
         <v>1</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="133" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E4" s="73" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="74" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="G4" s="75" t="s">
         <v>51</v>
@@ -2899,7 +2924,7 @@
         <v>51</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="J4" s="77"/>
     </row>
@@ -2907,18 +2932,18 @@
       <c r="A5" s="72">
         <v>2</v>
       </c>
-      <c r="B5" s="121"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G5" s="75" t="s">
         <v>52</v>
@@ -2932,914 +2957,961 @@
       <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A6" s="126">
+      <c r="A6" s="122">
         <v>3</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="112" t="s">
+      <c r="B6" s="134"/>
+      <c r="C6" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="125" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="116" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="119"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A7" s="123"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="120"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A8" s="123"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="120"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A9" s="123"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="120"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A10" s="123"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="120"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A11" s="123"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="120"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A12" s="123"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="120"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A13" s="124"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="121"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A14" s="130">
+        <v>4</v>
+      </c>
+      <c r="B14" s="134"/>
+      <c r="C14" s="125" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14" s="119"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A15" s="131"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="120"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A16" s="131"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="120"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A17" s="131"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="120"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A18" s="131"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="120"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A19" s="131"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="120"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A20" s="131"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="120"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A21" s="132"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="121"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1">
+      <c r="A22" s="130">
+        <v>5</v>
+      </c>
+      <c r="B22" s="134"/>
+      <c r="C22" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="112" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="106" t="s">
+      <c r="D22" s="125" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="106" t="s">
+      <c r="H22" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="106" t="s">
+      <c r="I22" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="109"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A7" s="127"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="110"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A8" s="127"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="110"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A9" s="127"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="110"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A10" s="127"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="110"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A11" s="127"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="110"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A12" s="127"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="110"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A13" s="128"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="111"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A14" s="117">
-        <v>4</v>
-      </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="112" t="s">
+      <c r="J22" s="119"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1">
+      <c r="A23" s="131"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="120"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
+      <c r="A24" s="131"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="120"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1">
+      <c r="A25" s="131"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="120"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1">
+      <c r="A26" s="131"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="120"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1">
+      <c r="A27" s="131"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="120"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1">
+      <c r="A28" s="131"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="120"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1">
+      <c r="A29" s="132"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="121"/>
+    </row>
+    <row r="30" spans="1:10" ht="12.75">
+      <c r="A30" s="116">
+        <v>6</v>
+      </c>
+      <c r="B30" s="134"/>
+      <c r="C30" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="119"/>
+    </row>
+    <row r="31" spans="1:10" ht="12.75">
+      <c r="A31" s="117"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="120"/>
+    </row>
+    <row r="32" spans="1:10" ht="12.75">
+      <c r="A32" s="117"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="120"/>
+    </row>
+    <row r="33" spans="1:10" ht="12.75">
+      <c r="A33" s="117"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="120"/>
+    </row>
+    <row r="34" spans="1:10" ht="12.75">
+      <c r="A34" s="117"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="120"/>
+    </row>
+    <row r="35" spans="1:10" ht="12.75">
+      <c r="A35" s="117"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="120"/>
+    </row>
+    <row r="36" spans="1:10" ht="12.75">
+      <c r="A36" s="117"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="120"/>
+    </row>
+    <row r="37" spans="1:10" ht="12.75">
+      <c r="A37" s="118"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="121"/>
+    </row>
+    <row r="38" spans="1:10" ht="12.75">
+      <c r="A38" s="136">
+        <v>7</v>
+      </c>
+      <c r="B38" s="134"/>
+      <c r="C38" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="119"/>
+    </row>
+    <row r="39" spans="1:10" ht="12.75">
+      <c r="A39" s="137"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="120"/>
+    </row>
+    <row r="40" spans="1:10" ht="12.75">
+      <c r="A40" s="137"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="120"/>
+    </row>
+    <row r="41" spans="1:10" ht="12.75">
+      <c r="A41" s="137"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="120"/>
+    </row>
+    <row r="42" spans="1:10" ht="12.75">
+      <c r="A42" s="137"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="120"/>
+    </row>
+    <row r="43" spans="1:10" ht="12.75">
+      <c r="A43" s="137"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="120"/>
+    </row>
+    <row r="44" spans="1:10" ht="12.75">
+      <c r="A44" s="137"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="120"/>
+    </row>
+    <row r="45" spans="1:10" ht="12.75">
+      <c r="A45" s="138"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="121"/>
+    </row>
+    <row r="46" spans="1:10" ht="12.75">
+      <c r="A46" s="136">
+        <v>8</v>
+      </c>
+      <c r="B46" s="134"/>
+      <c r="C46" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="125" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="119"/>
+    </row>
+    <row r="47" spans="1:10" ht="12.75">
+      <c r="A47" s="137"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="126"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="120"/>
+    </row>
+    <row r="48" spans="1:10" ht="12.75">
+      <c r="A48" s="137"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="126"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="120"/>
+    </row>
+    <row r="49" spans="1:10" ht="12.75">
+      <c r="A49" s="137"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="120"/>
+    </row>
+    <row r="50" spans="1:10" ht="12.75">
+      <c r="A50" s="137"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="117"/>
+      <c r="J50" s="120"/>
+    </row>
+    <row r="51" spans="1:10" ht="12.75">
+      <c r="A51" s="137"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="120"/>
+    </row>
+    <row r="52" spans="1:10" ht="12.75">
+      <c r="A52" s="137"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="120"/>
+    </row>
+    <row r="53" spans="1:10" ht="12.75">
+      <c r="A53" s="138"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="121"/>
+    </row>
+    <row r="54" spans="1:10" ht="12.75">
+      <c r="A54" s="116">
+        <v>9</v>
+      </c>
+      <c r="B54" s="134"/>
+      <c r="C54" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="125" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="119"/>
+    </row>
+    <row r="55" spans="1:10" ht="12.75">
+      <c r="A55" s="117"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="117"/>
+      <c r="J55" s="120"/>
+    </row>
+    <row r="56" spans="1:10" ht="12.75">
+      <c r="A56" s="117"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="117"/>
+      <c r="J56" s="120"/>
+    </row>
+    <row r="57" spans="1:10" ht="12.75">
+      <c r="A57" s="117"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="117"/>
+      <c r="J57" s="120"/>
+    </row>
+    <row r="58" spans="1:10" ht="12.75">
+      <c r="A58" s="117"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="117"/>
+      <c r="J58" s="120"/>
+    </row>
+    <row r="59" spans="1:10" ht="12.75">
+      <c r="A59" s="117"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="120"/>
+    </row>
+    <row r="60" spans="1:10" ht="12.75">
+      <c r="A60" s="117"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="117"/>
+      <c r="I60" s="117"/>
+      <c r="J60" s="120"/>
+    </row>
+    <row r="61" spans="1:10" ht="12.75">
+      <c r="A61" s="118"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="121"/>
+    </row>
+    <row r="62" spans="1:10" ht="12.75">
+      <c r="A62" s="116">
+        <v>10</v>
+      </c>
+      <c r="B62" s="134"/>
+      <c r="C62" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="125" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="106" t="s">
+      <c r="G62" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="106" t="s">
+      <c r="H62" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="106" t="s">
+      <c r="I62" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="109"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A15" s="118"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="110"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A16" s="118"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="110"/>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A17" s="118"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="110"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A18" s="118"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="110"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A19" s="118"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="110"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A20" s="118"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="110"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="111"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="117">
-        <v>5</v>
-      </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="112" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="112" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="109"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
-      <c r="A23" s="118"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="110"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
-      <c r="A24" s="118"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="110"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
-      <c r="A25" s="118"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="110"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
-      <c r="A26" s="118"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="110"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
-      <c r="A27" s="118"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="110"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
-      <c r="A28" s="118"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="110"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1">
-      <c r="A29" s="119"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="111"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75">
-      <c r="A30" s="106">
-        <v>6</v>
-      </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="112" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="112" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="112" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="109"/>
-    </row>
-    <row r="31" spans="1:10" ht="12.75">
-      <c r="A31" s="107"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="110"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.75">
-      <c r="A32" s="107"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="110"/>
-    </row>
-    <row r="33" spans="1:10" ht="12.75">
-      <c r="A33" s="107"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="110"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75">
-      <c r="A34" s="107"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="110"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.75">
-      <c r="A35" s="107"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="110"/>
-    </row>
-    <row r="36" spans="1:10" ht="12.75">
-      <c r="A36" s="107"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="110"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.75">
-      <c r="A37" s="108"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="111"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75">
-      <c r="A38" s="123">
-        <v>7</v>
-      </c>
-      <c r="B38" s="121"/>
-      <c r="C38" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="112" t="s">
-        <v>178</v>
-      </c>
-      <c r="E38" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="G38" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="109"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75">
-      <c r="A39" s="124"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="110"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75">
-      <c r="A40" s="124"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="110"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.75">
-      <c r="A41" s="124"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="110"/>
-    </row>
-    <row r="42" spans="1:10" ht="12.75">
-      <c r="A42" s="124"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="110"/>
-    </row>
-    <row r="43" spans="1:10" ht="12.75">
-      <c r="A43" s="124"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="110"/>
-    </row>
-    <row r="44" spans="1:10" ht="12.75">
-      <c r="A44" s="124"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="110"/>
-    </row>
-    <row r="45" spans="1:10" ht="12.75">
-      <c r="A45" s="125"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="111"/>
-    </row>
-    <row r="46" spans="1:10" ht="12.75">
-      <c r="A46" s="123">
-        <v>8</v>
-      </c>
-      <c r="B46" s="121"/>
-      <c r="C46" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="I46" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="109"/>
-    </row>
-    <row r="47" spans="1:10" ht="12.75">
-      <c r="A47" s="124"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="110"/>
-    </row>
-    <row r="48" spans="1:10" ht="12.75">
-      <c r="A48" s="124"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="110"/>
-    </row>
-    <row r="49" spans="1:10" ht="12.75">
-      <c r="A49" s="124"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="110"/>
-    </row>
-    <row r="50" spans="1:10" ht="12.75">
-      <c r="A50" s="124"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="110"/>
-    </row>
-    <row r="51" spans="1:10" ht="12.75">
-      <c r="A51" s="124"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="110"/>
-    </row>
-    <row r="52" spans="1:10" ht="12.75">
-      <c r="A52" s="124"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="110"/>
-    </row>
-    <row r="53" spans="1:10" ht="12.75">
-      <c r="A53" s="125"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="111"/>
-    </row>
-    <row r="54" spans="1:10" ht="12.75">
-      <c r="A54" s="106">
-        <v>9</v>
-      </c>
-      <c r="B54" s="121"/>
-      <c r="C54" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="112" t="s">
-        <v>180</v>
-      </c>
-      <c r="E54" s="112" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="112" t="s">
-        <v>188</v>
-      </c>
-      <c r="G54" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54" s="109"/>
-    </row>
-    <row r="55" spans="1:10" ht="12.75">
-      <c r="A55" s="107"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="110"/>
-    </row>
-    <row r="56" spans="1:10" ht="12.75">
-      <c r="A56" s="107"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="107"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="110"/>
-    </row>
-    <row r="57" spans="1:10" ht="12.75">
-      <c r="A57" s="107"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="110"/>
-    </row>
-    <row r="58" spans="1:10" ht="12.75">
-      <c r="A58" s="107"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
-      <c r="J58" s="110"/>
-    </row>
-    <row r="59" spans="1:10" ht="12.75">
-      <c r="A59" s="107"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="107"/>
-      <c r="J59" s="110"/>
-    </row>
-    <row r="60" spans="1:10" ht="12.75">
-      <c r="A60" s="107"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="110"/>
-    </row>
-    <row r="61" spans="1:10" ht="12.75">
-      <c r="A61" s="108"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="108"/>
-      <c r="J61" s="111"/>
-    </row>
-    <row r="62" spans="1:10" ht="12.75">
-      <c r="A62" s="106">
-        <v>10</v>
-      </c>
-      <c r="B62" s="121"/>
-      <c r="C62" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="E62" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="F62" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="G62" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="H62" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="I62" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="J62" s="109"/>
+      <c r="J62" s="119"/>
     </row>
     <row r="63" spans="1:10" ht="12.75">
-      <c r="A63" s="107"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="113"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="110"/>
+      <c r="A63" s="117"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="117"/>
+      <c r="I63" s="117"/>
+      <c r="J63" s="120"/>
     </row>
     <row r="64" spans="1:10" ht="12.75">
-      <c r="A64" s="107"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="115"/>
-      <c r="F64" s="113"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="110"/>
+      <c r="A64" s="117"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="128"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="120"/>
     </row>
     <row r="65" spans="1:10" ht="12.75">
-      <c r="A65" s="107"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
-      <c r="J65" s="110"/>
+      <c r="A65" s="117"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="128"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="117"/>
+      <c r="I65" s="117"/>
+      <c r="J65" s="120"/>
     </row>
     <row r="66" spans="1:10" ht="12.75">
-      <c r="A66" s="107"/>
-      <c r="B66" s="121"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="115"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="107"/>
-      <c r="J66" s="110"/>
+      <c r="A66" s="117"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="120"/>
     </row>
     <row r="67" spans="1:10" ht="12.75">
-      <c r="A67" s="107"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="115"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="107"/>
-      <c r="H67" s="107"/>
-      <c r="I67" s="107"/>
-      <c r="J67" s="110"/>
+      <c r="A67" s="117"/>
+      <c r="B67" s="134"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="117"/>
+      <c r="I67" s="117"/>
+      <c r="J67" s="120"/>
     </row>
     <row r="68" spans="1:10" ht="12.75">
-      <c r="A68" s="107"/>
-      <c r="B68" s="121"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="115"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="110"/>
+      <c r="A68" s="117"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="128"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="120"/>
     </row>
     <row r="69" spans="1:10" ht="12.75">
-      <c r="A69" s="108"/>
-      <c r="B69" s="122"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="116"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="108"/>
-      <c r="H69" s="108"/>
-      <c r="I69" s="108"/>
-      <c r="J69" s="111"/>
+      <c r="A69" s="118"/>
+      <c r="B69" s="135"/>
+      <c r="C69" s="127"/>
+      <c r="D69" s="127"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="127"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="118"/>
+      <c r="I69" s="118"/>
+      <c r="J69" s="121"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="83">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H54:H61"/>
+    <mergeCell ref="I54:I61"/>
+    <mergeCell ref="J54:J61"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="G62:G69"/>
+    <mergeCell ref="H62:H69"/>
+    <mergeCell ref="I62:I69"/>
+    <mergeCell ref="J62:J69"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="F54:F61"/>
+    <mergeCell ref="G54:G61"/>
+    <mergeCell ref="H38:H45"/>
+    <mergeCell ref="I38:I45"/>
+    <mergeCell ref="J38:J45"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="D46:D53"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="G46:G53"/>
+    <mergeCell ref="H46:H53"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="J46:J53"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="G38:G45"/>
+    <mergeCell ref="I22:I29"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="E30:E37"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="G30:G37"/>
+    <mergeCell ref="H30:H37"/>
+    <mergeCell ref="I30:I37"/>
+    <mergeCell ref="J30:J37"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="B4:B69"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="A62:A69"/>
     <mergeCell ref="H14:H21"/>
     <mergeCell ref="I14:I21"/>
     <mergeCell ref="J14:J21"/>
@@ -3856,63 +3928,16 @@
     <mergeCell ref="E14:E21"/>
     <mergeCell ref="F14:F21"/>
     <mergeCell ref="G14:G21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="B4:B69"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="I22:I29"/>
-    <mergeCell ref="J22:J29"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D37"/>
-    <mergeCell ref="E30:E37"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="G30:G37"/>
-    <mergeCell ref="H30:H37"/>
-    <mergeCell ref="I30:I37"/>
-    <mergeCell ref="J30:J37"/>
-    <mergeCell ref="H22:H29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="H38:H45"/>
-    <mergeCell ref="I38:I45"/>
-    <mergeCell ref="J38:J45"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="D46:D53"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="G46:G53"/>
-    <mergeCell ref="H46:H53"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="J46:J53"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="F38:F45"/>
-    <mergeCell ref="G38:G45"/>
-    <mergeCell ref="H54:H61"/>
-    <mergeCell ref="I54:I61"/>
-    <mergeCell ref="J54:J61"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="G62:G69"/>
-    <mergeCell ref="H62:H69"/>
-    <mergeCell ref="I62:I69"/>
-    <mergeCell ref="J62:J69"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="E54:E61"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="G54:G61"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="I4:I5" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -3932,7 +3957,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D22" sqref="D22:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3946,83 +3971,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="138"/>
-      <c r="I2" s="134" t="s">
+      <c r="H2" s="115"/>
+      <c r="I2" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="113" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="137"/>
+        <v>76</v>
+      </c>
+      <c r="I3" s="112"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" ht="63">
       <c r="A4" s="72">
         <v>1</v>
       </c>
-      <c r="B4" s="120" t="s">
-        <v>77</v>
+      <c r="B4" s="133" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F4" s="74" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G4" s="75" t="s">
         <v>51</v>
@@ -4031,7 +4056,7 @@
         <v>51</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="J4" s="77"/>
     </row>
@@ -4039,18 +4064,18 @@
       <c r="A5" s="72">
         <v>2</v>
       </c>
-      <c r="B5" s="121"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="73" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="G5" s="75" t="s">
         <v>52</v>
@@ -4059,7 +4084,7 @@
         <v>52</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="J5" s="77"/>
     </row>
@@ -4067,900 +4092,967 @@
       <c r="A6" s="153">
         <v>3</v>
       </c>
-      <c r="B6" s="121"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="142" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D6" s="142" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E6" s="142" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>194</v>
-      </c>
-      <c r="G6" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="139" t="s">
+      <c r="I6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="109"/>
+      <c r="J6" s="119"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="154"/>
-      <c r="B7" s="121"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="143"/>
       <c r="D7" s="143"/>
       <c r="E7" s="145"/>
       <c r="F7" s="143"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="110"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="154"/>
-      <c r="B8" s="121"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="143"/>
       <c r="D8" s="143"/>
       <c r="E8" s="145"/>
       <c r="F8" s="143"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="110"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="154"/>
-      <c r="B9" s="121"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="143"/>
       <c r="D9" s="143"/>
       <c r="E9" s="145"/>
       <c r="F9" s="143"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="110"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="120"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="121"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="143"/>
       <c r="D10" s="143"/>
       <c r="E10" s="145"/>
       <c r="F10" s="143"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="110"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="154"/>
-      <c r="B11" s="121"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="143"/>
       <c r="D11" s="143"/>
       <c r="E11" s="145"/>
       <c r="F11" s="143"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="110"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" s="154"/>
-      <c r="B12" s="121"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="143"/>
       <c r="D12" s="143"/>
       <c r="E12" s="145"/>
       <c r="F12" s="143"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="110"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" s="155"/>
-      <c r="B13" s="121"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="144"/>
       <c r="D13" s="144"/>
       <c r="E13" s="146"/>
       <c r="F13" s="144"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="111"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="150">
         <v>4</v>
       </c>
-      <c r="B14" s="121"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="142" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E14" s="142" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F14" s="142" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="139" t="s">
+      <c r="H14" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="139" t="s">
+      <c r="I14" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="109"/>
+      <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="151"/>
-      <c r="B15" s="121"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="143"/>
       <c r="D15" s="143"/>
       <c r="E15" s="145"/>
       <c r="F15" s="143"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="110"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" s="151"/>
-      <c r="B16" s="121"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="143"/>
       <c r="D16" s="143"/>
       <c r="E16" s="145"/>
       <c r="F16" s="143"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="110"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="120"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" s="151"/>
-      <c r="B17" s="121"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="143"/>
       <c r="D17" s="143"/>
       <c r="E17" s="145"/>
       <c r="F17" s="143"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="110"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="120"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="151"/>
-      <c r="B18" s="121"/>
+      <c r="B18" s="134"/>
       <c r="C18" s="143"/>
       <c r="D18" s="143"/>
       <c r="E18" s="145"/>
       <c r="F18" s="143"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="110"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="120"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
       <c r="A19" s="151"/>
-      <c r="B19" s="121"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="143"/>
       <c r="D19" s="143"/>
       <c r="E19" s="145"/>
       <c r="F19" s="143"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="110"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="120"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1">
       <c r="A20" s="151"/>
-      <c r="B20" s="121"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="143"/>
       <c r="D20" s="143"/>
       <c r="E20" s="145"/>
       <c r="F20" s="143"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="110"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1">
       <c r="A21" s="152"/>
-      <c r="B21" s="121"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="144"/>
       <c r="D21" s="144"/>
       <c r="E21" s="146"/>
       <c r="F21" s="144"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="111"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="150">
         <v>5</v>
       </c>
-      <c r="B22" s="121"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="142" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D22" s="142" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="E22" s="142" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="139" t="s">
+      <c r="H22" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="139" t="s">
+      <c r="I22" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="109"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="151"/>
-      <c r="B23" s="121"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="143"/>
       <c r="D23" s="143"/>
       <c r="E23" s="145"/>
       <c r="F23" s="143"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="110"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="120"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="151"/>
-      <c r="B24" s="121"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="143"/>
       <c r="D24" s="143"/>
       <c r="E24" s="145"/>
       <c r="F24" s="143"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="110"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="120"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="151"/>
-      <c r="B25" s="121"/>
+      <c r="B25" s="134"/>
       <c r="C25" s="143"/>
       <c r="D25" s="143"/>
       <c r="E25" s="145"/>
       <c r="F25" s="143"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="110"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="120"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="151"/>
-      <c r="B26" s="121"/>
+      <c r="B26" s="134"/>
       <c r="C26" s="143"/>
       <c r="D26" s="143"/>
       <c r="E26" s="145"/>
       <c r="F26" s="143"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="110"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="120"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="151"/>
-      <c r="B27" s="121"/>
+      <c r="B27" s="134"/>
       <c r="C27" s="143"/>
       <c r="D27" s="143"/>
       <c r="E27" s="145"/>
       <c r="F27" s="143"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="110"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="120"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="151"/>
-      <c r="B28" s="121"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="143"/>
       <c r="D28" s="143"/>
       <c r="E28" s="145"/>
       <c r="F28" s="143"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="110"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="120"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="152"/>
-      <c r="B29" s="121"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="144"/>
       <c r="D29" s="144"/>
       <c r="E29" s="146"/>
       <c r="F29" s="144"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="111"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="121"/>
     </row>
     <row r="30" spans="1:10" ht="12.75">
-      <c r="A30" s="139">
+      <c r="A30" s="147">
         <v>6</v>
       </c>
-      <c r="B30" s="121"/>
+      <c r="B30" s="134"/>
       <c r="C30" s="142" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D30" s="142" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E30" s="142" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F30" s="142" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="139" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="139" t="s">
+      <c r="H30" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I30" s="139" t="s">
+      <c r="I30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="109"/>
+      <c r="J30" s="119"/>
     </row>
     <row r="31" spans="1:10" ht="12.75">
-      <c r="A31" s="140"/>
-      <c r="B31" s="121"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="134"/>
       <c r="C31" s="143"/>
       <c r="D31" s="143"/>
       <c r="E31" s="145"/>
       <c r="F31" s="143"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="110"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="120"/>
     </row>
     <row r="32" spans="1:10" ht="12.75">
-      <c r="A32" s="140"/>
-      <c r="B32" s="121"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="143"/>
       <c r="D32" s="143"/>
       <c r="E32" s="145"/>
       <c r="F32" s="143"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="110"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="120"/>
     </row>
     <row r="33" spans="1:10" ht="12.75">
-      <c r="A33" s="140"/>
-      <c r="B33" s="121"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="143"/>
       <c r="D33" s="143"/>
       <c r="E33" s="145"/>
       <c r="F33" s="143"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="110"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="120"/>
     </row>
     <row r="34" spans="1:10" ht="12.75">
-      <c r="A34" s="140"/>
-      <c r="B34" s="121"/>
+      <c r="A34" s="148"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="143"/>
       <c r="D34" s="143"/>
       <c r="E34" s="145"/>
       <c r="F34" s="143"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="110"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="120"/>
     </row>
     <row r="35" spans="1:10" ht="12.75">
-      <c r="A35" s="140"/>
-      <c r="B35" s="121"/>
+      <c r="A35" s="148"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="143"/>
       <c r="D35" s="143"/>
       <c r="E35" s="145"/>
       <c r="F35" s="143"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="110"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="120"/>
     </row>
     <row r="36" spans="1:10" ht="12.75">
-      <c r="A36" s="140"/>
-      <c r="B36" s="121"/>
+      <c r="A36" s="148"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="143"/>
       <c r="D36" s="143"/>
       <c r="E36" s="145"/>
       <c r="F36" s="143"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="110"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="120"/>
     </row>
     <row r="37" spans="1:10" ht="12.75">
-      <c r="A37" s="141"/>
-      <c r="B37" s="121"/>
+      <c r="A37" s="149"/>
+      <c r="B37" s="134"/>
       <c r="C37" s="144"/>
       <c r="D37" s="144"/>
       <c r="E37" s="146"/>
       <c r="F37" s="144"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="111"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="121"/>
     </row>
     <row r="38" spans="1:10" ht="12.75">
-      <c r="A38" s="147">
+      <c r="A38" s="139">
         <v>7</v>
       </c>
-      <c r="B38" s="121"/>
+      <c r="B38" s="134"/>
       <c r="C38" s="142" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D38" s="142" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E38" s="142" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F38" s="142" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="139" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="139" t="s">
+      <c r="H38" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="139" t="s">
+      <c r="I38" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="109"/>
+      <c r="J38" s="119"/>
     </row>
     <row r="39" spans="1:10" ht="12.75">
-      <c r="A39" s="148"/>
-      <c r="B39" s="121"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="134"/>
       <c r="C39" s="143"/>
       <c r="D39" s="143"/>
       <c r="E39" s="145"/>
       <c r="F39" s="143"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="110"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="120"/>
     </row>
     <row r="40" spans="1:10" ht="12.75">
-      <c r="A40" s="148"/>
-      <c r="B40" s="121"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="134"/>
       <c r="C40" s="143"/>
       <c r="D40" s="143"/>
       <c r="E40" s="145"/>
       <c r="F40" s="143"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="110"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="120"/>
     </row>
     <row r="41" spans="1:10" ht="12.75">
-      <c r="A41" s="148"/>
-      <c r="B41" s="121"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="134"/>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
       <c r="E41" s="145"/>
       <c r="F41" s="143"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="110"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="120"/>
     </row>
     <row r="42" spans="1:10" ht="12.75">
-      <c r="A42" s="148"/>
-      <c r="B42" s="121"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="134"/>
       <c r="C42" s="143"/>
       <c r="D42" s="143"/>
       <c r="E42" s="145"/>
       <c r="F42" s="143"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="110"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="120"/>
     </row>
     <row r="43" spans="1:10" ht="12.75">
-      <c r="A43" s="148"/>
-      <c r="B43" s="121"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="134"/>
       <c r="C43" s="143"/>
       <c r="D43" s="143"/>
       <c r="E43" s="145"/>
       <c r="F43" s="143"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="110"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="120"/>
     </row>
     <row r="44" spans="1:10" ht="12.75">
-      <c r="A44" s="148"/>
-      <c r="B44" s="121"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="134"/>
       <c r="C44" s="143"/>
       <c r="D44" s="143"/>
       <c r="E44" s="145"/>
       <c r="F44" s="143"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="110"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:10" ht="12.75">
-      <c r="A45" s="149"/>
-      <c r="B45" s="121"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="134"/>
       <c r="C45" s="144"/>
       <c r="D45" s="144"/>
       <c r="E45" s="146"/>
       <c r="F45" s="144"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="111"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="121"/>
     </row>
     <row r="46" spans="1:10" ht="12.75">
-      <c r="A46" s="147">
+      <c r="A46" s="139">
         <v>8</v>
       </c>
-      <c r="B46" s="121"/>
+      <c r="B46" s="134"/>
       <c r="C46" s="142" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D46" s="142" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E46" s="142" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F46" s="142" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="139" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="139" t="s">
+      <c r="H46" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="139" t="s">
+      <c r="I46" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="109"/>
+      <c r="J46" s="119"/>
     </row>
     <row r="47" spans="1:10" ht="12.75">
-      <c r="A47" s="148"/>
-      <c r="B47" s="121"/>
+      <c r="A47" s="140"/>
+      <c r="B47" s="134"/>
       <c r="C47" s="143"/>
       <c r="D47" s="143"/>
       <c r="E47" s="145"/>
       <c r="F47" s="143"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="110"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:10" ht="12.75">
-      <c r="A48" s="148"/>
-      <c r="B48" s="121"/>
+      <c r="A48" s="140"/>
+      <c r="B48" s="134"/>
       <c r="C48" s="143"/>
       <c r="D48" s="143"/>
       <c r="E48" s="145"/>
       <c r="F48" s="143"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="110"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="120"/>
     </row>
     <row r="49" spans="1:10" ht="12.75">
-      <c r="A49" s="148"/>
-      <c r="B49" s="121"/>
+      <c r="A49" s="140"/>
+      <c r="B49" s="134"/>
       <c r="C49" s="143"/>
       <c r="D49" s="143"/>
       <c r="E49" s="145"/>
       <c r="F49" s="143"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="110"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="120"/>
     </row>
     <row r="50" spans="1:10" ht="12.75">
-      <c r="A50" s="148"/>
-      <c r="B50" s="121"/>
+      <c r="A50" s="140"/>
+      <c r="B50" s="134"/>
       <c r="C50" s="143"/>
       <c r="D50" s="143"/>
       <c r="E50" s="145"/>
       <c r="F50" s="143"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="110"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="120"/>
     </row>
     <row r="51" spans="1:10" ht="12.75">
-      <c r="A51" s="148"/>
-      <c r="B51" s="121"/>
+      <c r="A51" s="140"/>
+      <c r="B51" s="134"/>
       <c r="C51" s="143"/>
       <c r="D51" s="143"/>
       <c r="E51" s="145"/>
       <c r="F51" s="143"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="110"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
+      <c r="J51" s="120"/>
     </row>
     <row r="52" spans="1:10" ht="12.75">
-      <c r="A52" s="148"/>
-      <c r="B52" s="121"/>
+      <c r="A52" s="140"/>
+      <c r="B52" s="134"/>
       <c r="C52" s="143"/>
       <c r="D52" s="143"/>
       <c r="E52" s="145"/>
       <c r="F52" s="143"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="110"/>
+      <c r="G52" s="148"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="148"/>
+      <c r="J52" s="120"/>
     </row>
     <row r="53" spans="1:10" ht="12.75">
-      <c r="A53" s="149"/>
-      <c r="B53" s="121"/>
+      <c r="A53" s="141"/>
+      <c r="B53" s="134"/>
       <c r="C53" s="144"/>
       <c r="D53" s="144"/>
       <c r="E53" s="146"/>
       <c r="F53" s="144"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="141"/>
-      <c r="J53" s="111"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="149"/>
+      <c r="J53" s="121"/>
     </row>
     <row r="54" spans="1:10" ht="12.75">
-      <c r="A54" s="139">
+      <c r="A54" s="147">
         <v>9</v>
       </c>
-      <c r="B54" s="121"/>
+      <c r="B54" s="134"/>
       <c r="C54" s="142" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="D54" s="142" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="E54" s="142" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F54" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="G54" s="139" t="s">
+        <v>189</v>
+      </c>
+      <c r="G54" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H54" s="139" t="s">
+      <c r="H54" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="139" t="s">
+      <c r="I54" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J54" s="109"/>
+      <c r="J54" s="119"/>
     </row>
     <row r="55" spans="1:10" ht="12.75">
-      <c r="A55" s="140"/>
-      <c r="B55" s="121"/>
+      <c r="A55" s="148"/>
+      <c r="B55" s="134"/>
       <c r="C55" s="143"/>
       <c r="D55" s="143"/>
       <c r="E55" s="145"/>
       <c r="F55" s="143"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="140"/>
-      <c r="J55" s="110"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="148"/>
+      <c r="J55" s="120"/>
     </row>
     <row r="56" spans="1:10" ht="12.75">
-      <c r="A56" s="140"/>
-      <c r="B56" s="121"/>
+      <c r="A56" s="148"/>
+      <c r="B56" s="134"/>
       <c r="C56" s="143"/>
       <c r="D56" s="143"/>
       <c r="E56" s="145"/>
       <c r="F56" s="143"/>
-      <c r="G56" s="140"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="110"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="120"/>
     </row>
     <row r="57" spans="1:10" ht="12.75">
-      <c r="A57" s="140"/>
-      <c r="B57" s="121"/>
+      <c r="A57" s="148"/>
+      <c r="B57" s="134"/>
       <c r="C57" s="143"/>
       <c r="D57" s="143"/>
       <c r="E57" s="145"/>
       <c r="F57" s="143"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="110"/>
+      <c r="G57" s="148"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="120"/>
     </row>
     <row r="58" spans="1:10" ht="12.75">
-      <c r="A58" s="140"/>
-      <c r="B58" s="121"/>
+      <c r="A58" s="148"/>
+      <c r="B58" s="134"/>
       <c r="C58" s="143"/>
       <c r="D58" s="143"/>
       <c r="E58" s="145"/>
       <c r="F58" s="143"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="110"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="148"/>
+      <c r="I58" s="148"/>
+      <c r="J58" s="120"/>
     </row>
     <row r="59" spans="1:10" ht="12.75">
-      <c r="A59" s="140"/>
-      <c r="B59" s="121"/>
+      <c r="A59" s="148"/>
+      <c r="B59" s="134"/>
       <c r="C59" s="143"/>
       <c r="D59" s="143"/>
       <c r="E59" s="145"/>
       <c r="F59" s="143"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="110"/>
+      <c r="G59" s="148"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="148"/>
+      <c r="J59" s="120"/>
     </row>
     <row r="60" spans="1:10" ht="12.75">
-      <c r="A60" s="140"/>
-      <c r="B60" s="121"/>
+      <c r="A60" s="148"/>
+      <c r="B60" s="134"/>
       <c r="C60" s="143"/>
       <c r="D60" s="143"/>
       <c r="E60" s="145"/>
       <c r="F60" s="143"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="110"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="120"/>
     </row>
     <row r="61" spans="1:10" ht="12.75">
-      <c r="A61" s="141"/>
-      <c r="B61" s="121"/>
+      <c r="A61" s="149"/>
+      <c r="B61" s="134"/>
       <c r="C61" s="144"/>
       <c r="D61" s="144"/>
       <c r="E61" s="146"/>
       <c r="F61" s="144"/>
-      <c r="G61" s="141"/>
-      <c r="H61" s="141"/>
-      <c r="I61" s="141"/>
-      <c r="J61" s="111"/>
+      <c r="G61" s="149"/>
+      <c r="H61" s="149"/>
+      <c r="I61" s="149"/>
+      <c r="J61" s="121"/>
     </row>
     <row r="62" spans="1:10" ht="12.75">
-      <c r="A62" s="139">
+      <c r="A62" s="147">
         <v>10</v>
       </c>
-      <c r="B62" s="121"/>
+      <c r="B62" s="134"/>
       <c r="C62" s="142" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="D62" s="142" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E62" s="142" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="F62" s="142" t="s">
-        <v>202</v>
-      </c>
-      <c r="G62" s="139" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H62" s="139" t="s">
+      <c r="H62" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I62" s="139" t="s">
+      <c r="I62" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J62" s="109"/>
+      <c r="J62" s="119"/>
     </row>
     <row r="63" spans="1:10" ht="12.75">
-      <c r="A63" s="140"/>
-      <c r="B63" s="121"/>
+      <c r="A63" s="148"/>
+      <c r="B63" s="134"/>
       <c r="C63" s="143"/>
       <c r="D63" s="143"/>
       <c r="E63" s="145"/>
       <c r="F63" s="143"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="110"/>
+      <c r="G63" s="148"/>
+      <c r="H63" s="148"/>
+      <c r="I63" s="148"/>
+      <c r="J63" s="120"/>
     </row>
     <row r="64" spans="1:10" ht="12.75">
-      <c r="A64" s="140"/>
-      <c r="B64" s="121"/>
+      <c r="A64" s="148"/>
+      <c r="B64" s="134"/>
       <c r="C64" s="143"/>
       <c r="D64" s="143"/>
       <c r="E64" s="145"/>
       <c r="F64" s="143"/>
-      <c r="G64" s="140"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
-      <c r="J64" s="110"/>
+      <c r="G64" s="148"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="148"/>
+      <c r="J64" s="120"/>
     </row>
     <row r="65" spans="1:10" ht="12.75">
-      <c r="A65" s="140"/>
-      <c r="B65" s="121"/>
+      <c r="A65" s="148"/>
+      <c r="B65" s="134"/>
       <c r="C65" s="143"/>
       <c r="D65" s="143"/>
       <c r="E65" s="145"/>
       <c r="F65" s="143"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="110"/>
+      <c r="G65" s="148"/>
+      <c r="H65" s="148"/>
+      <c r="I65" s="148"/>
+      <c r="J65" s="120"/>
     </row>
     <row r="66" spans="1:10" ht="12.75">
-      <c r="A66" s="140"/>
-      <c r="B66" s="121"/>
+      <c r="A66" s="148"/>
+      <c r="B66" s="134"/>
       <c r="C66" s="143"/>
       <c r="D66" s="143"/>
       <c r="E66" s="145"/>
       <c r="F66" s="143"/>
-      <c r="G66" s="140"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="110"/>
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="J66" s="120"/>
     </row>
     <row r="67" spans="1:10" ht="12.75">
-      <c r="A67" s="140"/>
-      <c r="B67" s="121"/>
+      <c r="A67" s="148"/>
+      <c r="B67" s="134"/>
       <c r="C67" s="143"/>
       <c r="D67" s="143"/>
       <c r="E67" s="145"/>
       <c r="F67" s="143"/>
-      <c r="G67" s="140"/>
-      <c r="H67" s="140"/>
-      <c r="I67" s="140"/>
-      <c r="J67" s="110"/>
+      <c r="G67" s="148"/>
+      <c r="H67" s="148"/>
+      <c r="I67" s="148"/>
+      <c r="J67" s="120"/>
     </row>
     <row r="68" spans="1:10" ht="12.75">
-      <c r="A68" s="140"/>
-      <c r="B68" s="121"/>
+      <c r="A68" s="148"/>
+      <c r="B68" s="134"/>
       <c r="C68" s="143"/>
       <c r="D68" s="143"/>
       <c r="E68" s="145"/>
       <c r="F68" s="143"/>
-      <c r="G68" s="140"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="140"/>
-      <c r="J68" s="110"/>
+      <c r="G68" s="148"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="J68" s="120"/>
     </row>
     <row r="69" spans="1:10" ht="12.75">
-      <c r="A69" s="141"/>
-      <c r="B69" s="122"/>
+      <c r="A69" s="149"/>
+      <c r="B69" s="135"/>
       <c r="C69" s="144"/>
       <c r="D69" s="144"/>
       <c r="E69" s="146"/>
       <c r="F69" s="144"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="141"/>
-      <c r="I69" s="141"/>
-      <c r="J69" s="111"/>
+      <c r="G69" s="149"/>
+      <c r="H69" s="149"/>
+      <c r="I69" s="149"/>
+      <c r="J69" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="H62:H69"/>
+    <mergeCell ref="I62:I69"/>
+    <mergeCell ref="J62:J69"/>
+    <mergeCell ref="G54:G61"/>
+    <mergeCell ref="H54:H61"/>
+    <mergeCell ref="I54:I61"/>
+    <mergeCell ref="J54:J61"/>
+    <mergeCell ref="G62:G69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="G46:G53"/>
+    <mergeCell ref="H46:H53"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="J46:J53"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="F54:F61"/>
+    <mergeCell ref="G38:G45"/>
+    <mergeCell ref="H38:H45"/>
+    <mergeCell ref="I38:I45"/>
+    <mergeCell ref="J38:J45"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="E30:E37"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="I22:I29"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="G30:G37"/>
+    <mergeCell ref="H30:H37"/>
+    <mergeCell ref="I30:I37"/>
+    <mergeCell ref="J30:J37"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="F14:F21"/>
+    <mergeCell ref="G14:G21"/>
+    <mergeCell ref="B4:B69"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="H14:H21"/>
+    <mergeCell ref="I14:I21"/>
     <mergeCell ref="A46:A53"/>
     <mergeCell ref="C46:C53"/>
     <mergeCell ref="D46:D53"/>
@@ -4977,73 +5069,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="G6:G13"/>
     <mergeCell ref="H6:H13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F14:F21"/>
-    <mergeCell ref="G14:G21"/>
-    <mergeCell ref="B4:B69"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="E6:E13"/>
-    <mergeCell ref="F6:F13"/>
-    <mergeCell ref="H14:H21"/>
-    <mergeCell ref="I14:I21"/>
-    <mergeCell ref="E30:E37"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="J14:J21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="H22:H29"/>
-    <mergeCell ref="I22:I29"/>
-    <mergeCell ref="J22:J29"/>
-    <mergeCell ref="G30:G37"/>
-    <mergeCell ref="H30:H37"/>
-    <mergeCell ref="I30:I37"/>
-    <mergeCell ref="J30:J37"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="F38:F45"/>
-    <mergeCell ref="G38:G45"/>
-    <mergeCell ref="H38:H45"/>
-    <mergeCell ref="I38:I45"/>
-    <mergeCell ref="J38:J45"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D37"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="E54:E61"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="G46:G53"/>
-    <mergeCell ref="H46:H53"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="J46:J53"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="H62:H69"/>
-    <mergeCell ref="I62:I69"/>
-    <mergeCell ref="J62:J69"/>
-    <mergeCell ref="G54:G61"/>
-    <mergeCell ref="H54:H61"/>
-    <mergeCell ref="I54:I61"/>
-    <mergeCell ref="J54:J61"/>
-    <mergeCell ref="G62:G69"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="I4:I5" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -5062,8 +5087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:D45"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5077,83 +5102,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="138"/>
-      <c r="I2" s="134" t="s">
+      <c r="H2" s="115"/>
+      <c r="I2" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="113" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="137"/>
+        <v>76</v>
+      </c>
+      <c r="I3" s="112"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" ht="63">
       <c r="A4" s="72">
         <v>1</v>
       </c>
-      <c r="B4" s="120" t="s">
-        <v>105</v>
+      <c r="B4" s="133" t="s">
+        <v>91</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F4" s="74" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="G4" s="75" t="s">
         <v>51</v>
@@ -5170,18 +5195,18 @@
       <c r="A5" s="72">
         <v>2</v>
       </c>
-      <c r="B5" s="121"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="73" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G5" s="75" t="s">
         <v>52</v>
@@ -5198,574 +5223,594 @@
       <c r="A6" s="153">
         <v>3</v>
       </c>
-      <c r="B6" s="121"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="142" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D6" s="142" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="E6" s="142" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="139" t="s">
+      <c r="I6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="109"/>
+      <c r="J6" s="119"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="154"/>
-      <c r="B7" s="121"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="143"/>
       <c r="D7" s="143"/>
       <c r="E7" s="145"/>
       <c r="F7" s="143"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="110"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="154"/>
-      <c r="B8" s="121"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="143"/>
       <c r="D8" s="143"/>
       <c r="E8" s="145"/>
       <c r="F8" s="143"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="110"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="154"/>
-      <c r="B9" s="121"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="143"/>
       <c r="D9" s="143"/>
       <c r="E9" s="145"/>
       <c r="F9" s="143"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="110"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="120"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="121"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="143"/>
       <c r="D10" s="143"/>
       <c r="E10" s="145"/>
       <c r="F10" s="143"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="110"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="154"/>
-      <c r="B11" s="121"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="143"/>
       <c r="D11" s="143"/>
       <c r="E11" s="145"/>
       <c r="F11" s="143"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="110"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" s="154"/>
-      <c r="B12" s="121"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="143"/>
       <c r="D12" s="143"/>
       <c r="E12" s="145"/>
       <c r="F12" s="143"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="110"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" s="155"/>
-      <c r="B13" s="121"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="144"/>
       <c r="D13" s="144"/>
       <c r="E13" s="146"/>
       <c r="F13" s="144"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="111"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="150">
         <v>4</v>
       </c>
-      <c r="B14" s="121"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="142" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E14" s="142" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F14" s="142" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="139" t="s">
+      <c r="H14" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="139" t="s">
+      <c r="I14" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="109"/>
+      <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="151"/>
-      <c r="B15" s="121"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="143"/>
       <c r="D15" s="143"/>
       <c r="E15" s="145"/>
       <c r="F15" s="143"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="110"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" s="151"/>
-      <c r="B16" s="121"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="143"/>
       <c r="D16" s="143"/>
       <c r="E16" s="145"/>
       <c r="F16" s="143"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="110"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="120"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" s="151"/>
-      <c r="B17" s="121"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="143"/>
       <c r="D17" s="143"/>
       <c r="E17" s="145"/>
       <c r="F17" s="143"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="110"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="120"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="151"/>
-      <c r="B18" s="121"/>
+      <c r="B18" s="134"/>
       <c r="C18" s="143"/>
       <c r="D18" s="143"/>
       <c r="E18" s="145"/>
       <c r="F18" s="143"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="110"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="120"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
       <c r="A19" s="151"/>
-      <c r="B19" s="121"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="143"/>
       <c r="D19" s="143"/>
       <c r="E19" s="145"/>
       <c r="F19" s="143"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="110"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="120"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1">
       <c r="A20" s="151"/>
-      <c r="B20" s="121"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="143"/>
       <c r="D20" s="143"/>
       <c r="E20" s="145"/>
       <c r="F20" s="143"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="110"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1">
       <c r="A21" s="152"/>
-      <c r="B21" s="121"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="144"/>
       <c r="D21" s="144"/>
       <c r="E21" s="146"/>
       <c r="F21" s="144"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="111"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="150">
         <v>5</v>
       </c>
-      <c r="B22" s="121"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="142" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D22" s="142" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="E22" s="142" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="139" t="s">
+      <c r="H22" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="139" t="s">
+      <c r="I22" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="109"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="151"/>
-      <c r="B23" s="121"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="143"/>
       <c r="D23" s="143"/>
       <c r="E23" s="145"/>
       <c r="F23" s="143"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="110"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="120"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="151"/>
-      <c r="B24" s="121"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="143"/>
       <c r="D24" s="143"/>
       <c r="E24" s="145"/>
       <c r="F24" s="143"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="110"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="120"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="151"/>
-      <c r="B25" s="121"/>
+      <c r="B25" s="134"/>
       <c r="C25" s="143"/>
       <c r="D25" s="143"/>
       <c r="E25" s="145"/>
       <c r="F25" s="143"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="110"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="120"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="151"/>
-      <c r="B26" s="121"/>
+      <c r="B26" s="134"/>
       <c r="C26" s="143"/>
       <c r="D26" s="143"/>
       <c r="E26" s="145"/>
       <c r="F26" s="143"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="110"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="120"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="151"/>
-      <c r="B27" s="121"/>
+      <c r="B27" s="134"/>
       <c r="C27" s="143"/>
       <c r="D27" s="143"/>
       <c r="E27" s="145"/>
       <c r="F27" s="143"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="110"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="120"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="151"/>
-      <c r="B28" s="121"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="143"/>
       <c r="D28" s="143"/>
       <c r="E28" s="145"/>
       <c r="F28" s="143"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="110"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="120"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="152"/>
-      <c r="B29" s="121"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="144"/>
       <c r="D29" s="144"/>
       <c r="E29" s="146"/>
       <c r="F29" s="144"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="111"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="121"/>
     </row>
     <row r="30" spans="1:10" ht="12.75">
-      <c r="A30" s="139">
+      <c r="A30" s="147">
         <v>6</v>
       </c>
-      <c r="B30" s="121"/>
+      <c r="B30" s="134"/>
       <c r="C30" s="142" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D30" s="142" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="E30" s="142" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F30" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="139" t="s">
+      <c r="H30" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I30" s="139" t="s">
+      <c r="I30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="109"/>
+      <c r="J30" s="119"/>
     </row>
     <row r="31" spans="1:10" ht="12.75">
-      <c r="A31" s="140"/>
-      <c r="B31" s="121"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="134"/>
       <c r="C31" s="143"/>
       <c r="D31" s="143"/>
       <c r="E31" s="145"/>
       <c r="F31" s="143"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="110"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="120"/>
     </row>
     <row r="32" spans="1:10" ht="12.75">
-      <c r="A32" s="140"/>
-      <c r="B32" s="121"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="143"/>
       <c r="D32" s="143"/>
       <c r="E32" s="145"/>
       <c r="F32" s="143"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="110"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="120"/>
     </row>
     <row r="33" spans="1:10" ht="12.75">
-      <c r="A33" s="140"/>
-      <c r="B33" s="121"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="143"/>
       <c r="D33" s="143"/>
       <c r="E33" s="145"/>
       <c r="F33" s="143"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="110"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="120"/>
     </row>
     <row r="34" spans="1:10" ht="12.75">
-      <c r="A34" s="140"/>
-      <c r="B34" s="121"/>
+      <c r="A34" s="148"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="143"/>
       <c r="D34" s="143"/>
       <c r="E34" s="145"/>
       <c r="F34" s="143"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="110"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="120"/>
     </row>
     <row r="35" spans="1:10" ht="12.75">
-      <c r="A35" s="140"/>
-      <c r="B35" s="121"/>
+      <c r="A35" s="148"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="143"/>
       <c r="D35" s="143"/>
       <c r="E35" s="145"/>
       <c r="F35" s="143"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="110"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="120"/>
     </row>
     <row r="36" spans="1:10" ht="12.75">
-      <c r="A36" s="140"/>
-      <c r="B36" s="121"/>
+      <c r="A36" s="148"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="143"/>
       <c r="D36" s="143"/>
       <c r="E36" s="145"/>
       <c r="F36" s="143"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="110"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="120"/>
     </row>
     <row r="37" spans="1:10" ht="12.75">
-      <c r="A37" s="141"/>
-      <c r="B37" s="121"/>
+      <c r="A37" s="149"/>
+      <c r="B37" s="134"/>
       <c r="C37" s="144"/>
       <c r="D37" s="144"/>
       <c r="E37" s="146"/>
       <c r="F37" s="144"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="111"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="121"/>
     </row>
     <row r="38" spans="1:10" ht="12.75">
-      <c r="A38" s="147">
+      <c r="A38" s="139">
         <v>7</v>
       </c>
-      <c r="B38" s="121"/>
+      <c r="B38" s="134"/>
       <c r="C38" s="142" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D38" s="142" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="E38" s="142" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F38" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="139" t="s">
+      <c r="H38" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="139" t="s">
+      <c r="I38" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="109"/>
+      <c r="J38" s="119"/>
     </row>
     <row r="39" spans="1:10" ht="12.75">
-      <c r="A39" s="148"/>
-      <c r="B39" s="121"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="134"/>
       <c r="C39" s="143"/>
       <c r="D39" s="143"/>
       <c r="E39" s="145"/>
       <c r="F39" s="143"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="110"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="120"/>
     </row>
     <row r="40" spans="1:10" ht="12.75">
-      <c r="A40" s="148"/>
-      <c r="B40" s="121"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="134"/>
       <c r="C40" s="143"/>
       <c r="D40" s="143"/>
       <c r="E40" s="145"/>
       <c r="F40" s="143"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="110"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="120"/>
     </row>
     <row r="41" spans="1:10" ht="12.75">
-      <c r="A41" s="148"/>
-      <c r="B41" s="121"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="134"/>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
       <c r="E41" s="145"/>
       <c r="F41" s="143"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="110"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="120"/>
     </row>
     <row r="42" spans="1:10" ht="12.75">
-      <c r="A42" s="148"/>
-      <c r="B42" s="121"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="134"/>
       <c r="C42" s="143"/>
       <c r="D42" s="143"/>
       <c r="E42" s="145"/>
       <c r="F42" s="143"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="110"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="120"/>
     </row>
     <row r="43" spans="1:10" ht="12.75">
-      <c r="A43" s="148"/>
-      <c r="B43" s="121"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="134"/>
       <c r="C43" s="143"/>
       <c r="D43" s="143"/>
       <c r="E43" s="145"/>
       <c r="F43" s="143"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="110"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="120"/>
     </row>
     <row r="44" spans="1:10" ht="12.75">
-      <c r="A44" s="148"/>
-      <c r="B44" s="121"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="134"/>
       <c r="C44" s="143"/>
       <c r="D44" s="143"/>
       <c r="E44" s="145"/>
       <c r="F44" s="143"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="110"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:10" ht="12.75">
-      <c r="A45" s="149"/>
-      <c r="B45" s="122"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="135"/>
       <c r="C45" s="144"/>
       <c r="D45" s="144"/>
       <c r="E45" s="146"/>
       <c r="F45" s="144"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="111"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G38:G45"/>
+    <mergeCell ref="H38:H45"/>
+    <mergeCell ref="I38:I45"/>
+    <mergeCell ref="J38:J45"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="E30:E37"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="H14:H21"/>
+    <mergeCell ref="I14:I21"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="I22:I29"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="G30:G37"/>
+    <mergeCell ref="H30:H37"/>
+    <mergeCell ref="I30:I37"/>
+    <mergeCell ref="J30:J37"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:F29"/>
     <mergeCell ref="G6:G13"/>
     <mergeCell ref="H6:H13"/>
     <mergeCell ref="I6:I13"/>
@@ -5782,36 +5827,16 @@
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="E6:E13"/>
     <mergeCell ref="F6:F13"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="E30:E37"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="H14:H21"/>
-    <mergeCell ref="I14:I21"/>
-    <mergeCell ref="J14:J21"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="H22:H29"/>
-    <mergeCell ref="I22:I29"/>
-    <mergeCell ref="J22:J29"/>
-    <mergeCell ref="G30:G37"/>
-    <mergeCell ref="H30:H37"/>
-    <mergeCell ref="I30:I37"/>
-    <mergeCell ref="J30:J37"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="F38:F45"/>
-    <mergeCell ref="G38:G45"/>
-    <mergeCell ref="H38:H45"/>
-    <mergeCell ref="I38:I45"/>
-    <mergeCell ref="J38:J45"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="I4:I5" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -5830,8 +5855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F37"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5845,83 +5870,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="138"/>
-      <c r="I2" s="134" t="s">
+      <c r="H2" s="115"/>
+      <c r="I2" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="113" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="137"/>
+        <v>76</v>
+      </c>
+      <c r="I3" s="112"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" ht="63">
       <c r="A4" s="72">
         <v>1</v>
       </c>
-      <c r="B4" s="120" t="s">
-        <v>128</v>
+      <c r="B4" s="133" t="s">
+        <v>109</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F4" s="74" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="G4" s="75" t="s">
         <v>51</v>
@@ -5938,18 +5963,18 @@
       <c r="A5" s="72">
         <v>2</v>
       </c>
-      <c r="B5" s="121"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="73" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G5" s="75" t="s">
         <v>52</v>
@@ -5966,574 +5991,594 @@
       <c r="A6" s="153">
         <v>3</v>
       </c>
-      <c r="B6" s="121"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="142" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D6" s="142" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="E6" s="142" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="139" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="139" t="s">
+      <c r="I6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="109"/>
+      <c r="J6" s="119"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="154"/>
-      <c r="B7" s="121"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="143"/>
       <c r="D7" s="143"/>
       <c r="E7" s="145"/>
       <c r="F7" s="143"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="110"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="154"/>
-      <c r="B8" s="121"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="143"/>
       <c r="D8" s="143"/>
       <c r="E8" s="145"/>
       <c r="F8" s="143"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="110"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="154"/>
-      <c r="B9" s="121"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="143"/>
       <c r="D9" s="143"/>
       <c r="E9" s="145"/>
       <c r="F9" s="143"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="110"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="120"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="121"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="143"/>
       <c r="D10" s="143"/>
       <c r="E10" s="145"/>
       <c r="F10" s="143"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="110"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="154"/>
-      <c r="B11" s="121"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="143"/>
       <c r="D11" s="143"/>
       <c r="E11" s="145"/>
       <c r="F11" s="143"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="110"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" s="154"/>
-      <c r="B12" s="121"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="143"/>
       <c r="D12" s="143"/>
       <c r="E12" s="145"/>
       <c r="F12" s="143"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="110"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" s="155"/>
-      <c r="B13" s="121"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="144"/>
       <c r="D13" s="144"/>
       <c r="E13" s="146"/>
       <c r="F13" s="144"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="111"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="150">
         <v>4</v>
       </c>
-      <c r="B14" s="121"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="142" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="E14" s="142" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F14" s="142" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="139" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="139" t="s">
+      <c r="H14" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="139" t="s">
+      <c r="I14" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="109"/>
+      <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="151"/>
-      <c r="B15" s="121"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="143"/>
       <c r="D15" s="143"/>
       <c r="E15" s="145"/>
       <c r="F15" s="143"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="110"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" s="151"/>
-      <c r="B16" s="121"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="143"/>
       <c r="D16" s="143"/>
       <c r="E16" s="145"/>
       <c r="F16" s="143"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="110"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="120"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" s="151"/>
-      <c r="B17" s="121"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="143"/>
       <c r="D17" s="143"/>
       <c r="E17" s="145"/>
       <c r="F17" s="143"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="110"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="120"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="151"/>
-      <c r="B18" s="121"/>
+      <c r="B18" s="134"/>
       <c r="C18" s="143"/>
       <c r="D18" s="143"/>
       <c r="E18" s="145"/>
       <c r="F18" s="143"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="110"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="120"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
       <c r="A19" s="151"/>
-      <c r="B19" s="121"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="143"/>
       <c r="D19" s="143"/>
       <c r="E19" s="145"/>
       <c r="F19" s="143"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="110"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="120"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1">
       <c r="A20" s="151"/>
-      <c r="B20" s="121"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="143"/>
       <c r="D20" s="143"/>
       <c r="E20" s="145"/>
       <c r="F20" s="143"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="110"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1">
       <c r="A21" s="152"/>
-      <c r="B21" s="121"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="144"/>
       <c r="D21" s="144"/>
       <c r="E21" s="146"/>
       <c r="F21" s="144"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="111"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="150">
         <v>5</v>
       </c>
-      <c r="B22" s="121"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="142" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D22" s="142" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="E22" s="142" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="139" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="139" t="s">
+      <c r="H22" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="139" t="s">
+      <c r="I22" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="109"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="151"/>
-      <c r="B23" s="121"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="143"/>
       <c r="D23" s="143"/>
       <c r="E23" s="145"/>
       <c r="F23" s="143"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="110"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="120"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="151"/>
-      <c r="B24" s="121"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="143"/>
       <c r="D24" s="143"/>
       <c r="E24" s="145"/>
       <c r="F24" s="143"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="110"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="120"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="151"/>
-      <c r="B25" s="121"/>
+      <c r="B25" s="134"/>
       <c r="C25" s="143"/>
       <c r="D25" s="143"/>
       <c r="E25" s="145"/>
       <c r="F25" s="143"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="110"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="120"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="151"/>
-      <c r="B26" s="121"/>
+      <c r="B26" s="134"/>
       <c r="C26" s="143"/>
       <c r="D26" s="143"/>
       <c r="E26" s="145"/>
       <c r="F26" s="143"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="110"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="120"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="151"/>
-      <c r="B27" s="121"/>
+      <c r="B27" s="134"/>
       <c r="C27" s="143"/>
       <c r="D27" s="143"/>
       <c r="E27" s="145"/>
       <c r="F27" s="143"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="110"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="120"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="151"/>
-      <c r="B28" s="121"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="143"/>
       <c r="D28" s="143"/>
       <c r="E28" s="145"/>
       <c r="F28" s="143"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="110"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="120"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="152"/>
-      <c r="B29" s="121"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="144"/>
       <c r="D29" s="144"/>
       <c r="E29" s="146"/>
       <c r="F29" s="144"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="111"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="121"/>
     </row>
     <row r="30" spans="1:10" ht="12.75">
-      <c r="A30" s="139">
+      <c r="A30" s="147">
         <v>6</v>
       </c>
-      <c r="B30" s="121"/>
+      <c r="B30" s="134"/>
       <c r="C30" s="142" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="D30" s="142" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="E30" s="142" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="F30" s="142" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="139" t="s">
+      <c r="H30" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I30" s="139" t="s">
+      <c r="I30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="109"/>
+      <c r="J30" s="119"/>
     </row>
     <row r="31" spans="1:10" ht="12.75">
-      <c r="A31" s="140"/>
-      <c r="B31" s="121"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="134"/>
       <c r="C31" s="143"/>
       <c r="D31" s="143"/>
       <c r="E31" s="145"/>
       <c r="F31" s="143"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="110"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="120"/>
     </row>
     <row r="32" spans="1:10" ht="12.75">
-      <c r="A32" s="140"/>
-      <c r="B32" s="121"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="143"/>
       <c r="D32" s="143"/>
       <c r="E32" s="145"/>
       <c r="F32" s="143"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="110"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="120"/>
     </row>
     <row r="33" spans="1:10" ht="12.75">
-      <c r="A33" s="140"/>
-      <c r="B33" s="121"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="143"/>
       <c r="D33" s="143"/>
       <c r="E33" s="145"/>
       <c r="F33" s="143"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="110"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="120"/>
     </row>
     <row r="34" spans="1:10" ht="12.75">
-      <c r="A34" s="140"/>
-      <c r="B34" s="121"/>
+      <c r="A34" s="148"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="143"/>
       <c r="D34" s="143"/>
       <c r="E34" s="145"/>
       <c r="F34" s="143"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="110"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="120"/>
     </row>
     <row r="35" spans="1:10" ht="12.75">
-      <c r="A35" s="140"/>
-      <c r="B35" s="121"/>
+      <c r="A35" s="148"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="143"/>
       <c r="D35" s="143"/>
       <c r="E35" s="145"/>
       <c r="F35" s="143"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="110"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="120"/>
     </row>
     <row r="36" spans="1:10" ht="12.75">
-      <c r="A36" s="140"/>
-      <c r="B36" s="121"/>
+      <c r="A36" s="148"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="143"/>
       <c r="D36" s="143"/>
       <c r="E36" s="145"/>
       <c r="F36" s="143"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="110"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="120"/>
     </row>
     <row r="37" spans="1:10" ht="12.75">
-      <c r="A37" s="141"/>
-      <c r="B37" s="121"/>
+      <c r="A37" s="149"/>
+      <c r="B37" s="134"/>
       <c r="C37" s="144"/>
       <c r="D37" s="144"/>
       <c r="E37" s="146"/>
       <c r="F37" s="144"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="111"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="121"/>
     </row>
     <row r="38" spans="1:10" ht="12.75">
-      <c r="A38" s="147">
+      <c r="A38" s="139">
         <v>7</v>
       </c>
-      <c r="B38" s="121"/>
+      <c r="B38" s="134"/>
       <c r="C38" s="142" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D38" s="142" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="E38" s="142" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="F38" s="142" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="139" t="s">
+      <c r="H38" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="139" t="s">
+      <c r="I38" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="109"/>
+      <c r="J38" s="119"/>
     </row>
     <row r="39" spans="1:10" ht="12.75">
-      <c r="A39" s="148"/>
-      <c r="B39" s="121"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="134"/>
       <c r="C39" s="143"/>
       <c r="D39" s="143"/>
       <c r="E39" s="145"/>
       <c r="F39" s="143"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="110"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="120"/>
     </row>
     <row r="40" spans="1:10" ht="12.75">
-      <c r="A40" s="148"/>
-      <c r="B40" s="121"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="134"/>
       <c r="C40" s="143"/>
       <c r="D40" s="143"/>
       <c r="E40" s="145"/>
       <c r="F40" s="143"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="110"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="120"/>
     </row>
     <row r="41" spans="1:10" ht="12.75">
-      <c r="A41" s="148"/>
-      <c r="B41" s="121"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="134"/>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
       <c r="E41" s="145"/>
       <c r="F41" s="143"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="110"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="120"/>
     </row>
     <row r="42" spans="1:10" ht="12.75">
-      <c r="A42" s="148"/>
-      <c r="B42" s="121"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="134"/>
       <c r="C42" s="143"/>
       <c r="D42" s="143"/>
       <c r="E42" s="145"/>
       <c r="F42" s="143"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="110"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="120"/>
     </row>
     <row r="43" spans="1:10" ht="12.75">
-      <c r="A43" s="148"/>
-      <c r="B43" s="121"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="134"/>
       <c r="C43" s="143"/>
       <c r="D43" s="143"/>
       <c r="E43" s="145"/>
       <c r="F43" s="143"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="110"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="120"/>
     </row>
     <row r="44" spans="1:10" ht="12.75">
-      <c r="A44" s="148"/>
-      <c r="B44" s="121"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="134"/>
       <c r="C44" s="143"/>
       <c r="D44" s="143"/>
       <c r="E44" s="145"/>
       <c r="F44" s="143"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="110"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:10" ht="12.75">
-      <c r="A45" s="149"/>
-      <c r="B45" s="122"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="135"/>
       <c r="C45" s="144"/>
       <c r="D45" s="144"/>
       <c r="E45" s="146"/>
       <c r="F45" s="144"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="111"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G38:G45"/>
+    <mergeCell ref="H38:H45"/>
+    <mergeCell ref="I38:I45"/>
+    <mergeCell ref="J38:J45"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="E30:E37"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="H14:H21"/>
+    <mergeCell ref="I14:I21"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="I22:I29"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="G30:G37"/>
+    <mergeCell ref="H30:H37"/>
+    <mergeCell ref="I30:I37"/>
+    <mergeCell ref="J30:J37"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:F29"/>
     <mergeCell ref="G6:G13"/>
     <mergeCell ref="H6:H13"/>
     <mergeCell ref="I6:I13"/>
@@ -6550,36 +6595,16 @@
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="E6:E13"/>
     <mergeCell ref="F6:F13"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="E30:E37"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="H14:H21"/>
-    <mergeCell ref="I14:I21"/>
-    <mergeCell ref="J14:J21"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="H22:H29"/>
-    <mergeCell ref="I22:I29"/>
-    <mergeCell ref="J22:J29"/>
-    <mergeCell ref="G30:G37"/>
-    <mergeCell ref="H30:H37"/>
-    <mergeCell ref="I30:I37"/>
-    <mergeCell ref="J30:J37"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="F38:F45"/>
-    <mergeCell ref="G38:G45"/>
-    <mergeCell ref="H38:H45"/>
-    <mergeCell ref="I38:I45"/>
-    <mergeCell ref="J38:J45"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="I4:I5" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -6598,8 +6623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F29"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6613,83 +6638,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="138"/>
-      <c r="I2" s="134" t="s">
+      <c r="H2" s="115"/>
+      <c r="I2" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="113" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="137"/>
+        <v>76</v>
+      </c>
+      <c r="I3" s="112"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" ht="110.25">
       <c r="A4" s="72">
         <v>1</v>
       </c>
-      <c r="B4" s="120" t="s">
-        <v>128</v>
+      <c r="B4" s="133" t="s">
+        <v>109</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="F4" s="74" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="G4" s="75" t="s">
         <v>51</v>
@@ -6706,18 +6731,18 @@
       <c r="A5" s="72">
         <v>2</v>
       </c>
-      <c r="B5" s="121"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="73" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G5" s="75" t="s">
         <v>52</v>
@@ -6734,483 +6759,452 @@
       <c r="A6" s="153">
         <v>3</v>
       </c>
-      <c r="B6" s="121"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="142" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D6" s="142" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="E6" s="142" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="139" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="139" t="s">
+      <c r="I6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="109"/>
+      <c r="J6" s="119"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="154"/>
-      <c r="B7" s="121"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="143"/>
       <c r="D7" s="143"/>
       <c r="E7" s="145"/>
       <c r="F7" s="143"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="110"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="154"/>
-      <c r="B8" s="121"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="143"/>
       <c r="D8" s="143"/>
       <c r="E8" s="145"/>
       <c r="F8" s="143"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="110"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="154"/>
-      <c r="B9" s="121"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="143"/>
       <c r="D9" s="143"/>
       <c r="E9" s="145"/>
       <c r="F9" s="143"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="110"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="120"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="121"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="143"/>
       <c r="D10" s="143"/>
       <c r="E10" s="145"/>
       <c r="F10" s="143"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="110"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="154"/>
-      <c r="B11" s="121"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="143"/>
       <c r="D11" s="143"/>
       <c r="E11" s="145"/>
       <c r="F11" s="143"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="110"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" s="154"/>
-      <c r="B12" s="121"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="143"/>
       <c r="D12" s="143"/>
       <c r="E12" s="145"/>
       <c r="F12" s="143"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="110"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" s="155"/>
-      <c r="B13" s="121"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="144"/>
       <c r="D13" s="144"/>
       <c r="E13" s="146"/>
       <c r="F13" s="144"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="111"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="150">
         <v>4</v>
       </c>
-      <c r="B14" s="121"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="142" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D14" s="142" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="142" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="142" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="142" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="142" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="139" t="s">
+      <c r="G14" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="139" t="s">
+      <c r="H14" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="139" t="s">
+      <c r="I14" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="109"/>
+      <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="151"/>
-      <c r="B15" s="121"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="143"/>
       <c r="D15" s="143"/>
       <c r="E15" s="145"/>
       <c r="F15" s="143"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="110"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" s="151"/>
-      <c r="B16" s="121"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="143"/>
       <c r="D16" s="143"/>
       <c r="E16" s="145"/>
       <c r="F16" s="143"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="110"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="120"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" s="151"/>
-      <c r="B17" s="121"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="143"/>
       <c r="D17" s="143"/>
       <c r="E17" s="145"/>
       <c r="F17" s="143"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="110"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="120"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="151"/>
-      <c r="B18" s="121"/>
+      <c r="B18" s="134"/>
       <c r="C18" s="143"/>
       <c r="D18" s="143"/>
       <c r="E18" s="145"/>
       <c r="F18" s="143"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="110"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="120"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
       <c r="A19" s="151"/>
-      <c r="B19" s="121"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="143"/>
       <c r="D19" s="143"/>
       <c r="E19" s="145"/>
       <c r="F19" s="143"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="110"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="120"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1">
       <c r="A20" s="151"/>
-      <c r="B20" s="121"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="143"/>
       <c r="D20" s="143"/>
       <c r="E20" s="145"/>
       <c r="F20" s="143"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="110"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1">
       <c r="A21" s="152"/>
-      <c r="B21" s="121"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="144"/>
       <c r="D21" s="144"/>
       <c r="E21" s="146"/>
       <c r="F21" s="144"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="111"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="1:10" ht="12.75">
-      <c r="A22" s="139">
+      <c r="A22" s="147">
         <v>5</v>
       </c>
-      <c r="B22" s="121"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="142" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D22" s="142" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="E22" s="142" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="139" t="s">
+      <c r="H22" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="139" t="s">
+      <c r="I22" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="109"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="23" spans="1:10" ht="12.75">
-      <c r="A23" s="140"/>
-      <c r="B23" s="121"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="143"/>
       <c r="D23" s="143"/>
       <c r="E23" s="145"/>
       <c r="F23" s="143"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="110"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="120"/>
     </row>
     <row r="24" spans="1:10" ht="12.75">
-      <c r="A24" s="140"/>
-      <c r="B24" s="121"/>
+      <c r="A24" s="148"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="143"/>
       <c r="D24" s="143"/>
       <c r="E24" s="145"/>
       <c r="F24" s="143"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="110"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="120"/>
     </row>
     <row r="25" spans="1:10" ht="12.75">
-      <c r="A25" s="140"/>
-      <c r="B25" s="121"/>
+      <c r="A25" s="148"/>
+      <c r="B25" s="134"/>
       <c r="C25" s="143"/>
       <c r="D25" s="143"/>
       <c r="E25" s="145"/>
       <c r="F25" s="143"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="110"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="120"/>
     </row>
     <row r="26" spans="1:10" ht="12.75">
-      <c r="A26" s="140"/>
-      <c r="B26" s="121"/>
+      <c r="A26" s="148"/>
+      <c r="B26" s="134"/>
       <c r="C26" s="143"/>
       <c r="D26" s="143"/>
       <c r="E26" s="145"/>
       <c r="F26" s="143"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="110"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="120"/>
     </row>
     <row r="27" spans="1:10" ht="12.75">
-      <c r="A27" s="140"/>
-      <c r="B27" s="121"/>
+      <c r="A27" s="148"/>
+      <c r="B27" s="134"/>
       <c r="C27" s="143"/>
       <c r="D27" s="143"/>
       <c r="E27" s="145"/>
       <c r="F27" s="143"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="110"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="120"/>
     </row>
     <row r="28" spans="1:10" ht="12.75">
-      <c r="A28" s="140"/>
-      <c r="B28" s="121"/>
+      <c r="A28" s="148"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="143"/>
       <c r="D28" s="143"/>
       <c r="E28" s="145"/>
       <c r="F28" s="143"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="110"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="120"/>
     </row>
     <row r="29" spans="1:10" ht="12.75">
-      <c r="A29" s="141"/>
-      <c r="B29" s="121"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="144"/>
       <c r="D29" s="144"/>
       <c r="E29" s="146"/>
       <c r="F29" s="144"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="111"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="121"/>
     </row>
     <row r="30" spans="1:10" ht="12.75">
-      <c r="A30" s="147">
+      <c r="A30" s="139">
         <v>6</v>
       </c>
-      <c r="B30" s="121"/>
+      <c r="B30" s="134"/>
       <c r="C30" s="142" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D30" s="142" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="E30" s="142" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="F30" s="142" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" s="139" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="139" t="s">
+      <c r="H30" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I30" s="139" t="s">
+      <c r="I30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="109"/>
+      <c r="J30" s="119"/>
     </row>
     <row r="31" spans="1:10" ht="12.75">
-      <c r="A31" s="148"/>
-      <c r="B31" s="121"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="134"/>
       <c r="C31" s="143"/>
       <c r="D31" s="143"/>
       <c r="E31" s="145"/>
       <c r="F31" s="143"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="110"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="120"/>
     </row>
     <row r="32" spans="1:10" ht="12.75">
-      <c r="A32" s="148"/>
-      <c r="B32" s="121"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="143"/>
       <c r="D32" s="143"/>
       <c r="E32" s="145"/>
       <c r="F32" s="143"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="110"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="120"/>
     </row>
     <row r="33" spans="1:10" ht="12.75">
-      <c r="A33" s="148"/>
-      <c r="B33" s="121"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="143"/>
       <c r="D33" s="143"/>
       <c r="E33" s="145"/>
       <c r="F33" s="143"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="110"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="120"/>
     </row>
     <row r="34" spans="1:10" ht="12.75">
-      <c r="A34" s="148"/>
-      <c r="B34" s="121"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="143"/>
       <c r="D34" s="143"/>
       <c r="E34" s="145"/>
       <c r="F34" s="143"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="110"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="120"/>
     </row>
     <row r="35" spans="1:10" ht="12.75">
-      <c r="A35" s="148"/>
-      <c r="B35" s="121"/>
+      <c r="A35" s="140"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="143"/>
       <c r="D35" s="143"/>
       <c r="E35" s="145"/>
       <c r="F35" s="143"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="110"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="120"/>
     </row>
     <row r="36" spans="1:10" ht="12.75">
-      <c r="A36" s="148"/>
-      <c r="B36" s="121"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="143"/>
       <c r="D36" s="143"/>
       <c r="E36" s="145"/>
       <c r="F36" s="143"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="110"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="120"/>
     </row>
     <row r="37" spans="1:10" ht="12.75">
-      <c r="A37" s="149"/>
-      <c r="B37" s="122"/>
+      <c r="A37" s="141"/>
+      <c r="B37" s="135"/>
       <c r="C37" s="144"/>
       <c r="D37" s="144"/>
       <c r="E37" s="146"/>
       <c r="F37" s="144"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="111"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="G6:G13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="G30:G37"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F14:F21"/>
-    <mergeCell ref="H14:H21"/>
-    <mergeCell ref="I14:I21"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="J14:J21"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="H22:H29"/>
-    <mergeCell ref="I22:I29"/>
-    <mergeCell ref="J22:J29"/>
-    <mergeCell ref="G14:G21"/>
     <mergeCell ref="H30:H37"/>
     <mergeCell ref="I30:I37"/>
     <mergeCell ref="J30:J37"/>
@@ -7227,6 +7221,37 @@
     <mergeCell ref="C30:C37"/>
     <mergeCell ref="D30:D37"/>
     <mergeCell ref="E30:E37"/>
+    <mergeCell ref="H14:H21"/>
+    <mergeCell ref="I14:I21"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="I22:I29"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="G14:G21"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="G30:G37"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="F14:F21"/>
+    <mergeCell ref="G6:G13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="J6:J13"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="G4:H5" xr:uid="{00000000-0002-0000-0500-000000000000}">
